--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_12.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_12.xlsx
@@ -414,10 +414,10 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -431,7 +431,7 @@
         <v>0.55</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>0.65</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>0.7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>0.75</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>0.8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0.85</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0.9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
